--- a/DCISM_WBRMSystem/file/temp_inventory/LB 467 (169 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 467 (169 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 467</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -31518,7 +31518,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6juFVrEs2c6nR5VRQRl3JdJvEgJ/vE+hITGg4F5M+SYpGwNAFpakcRB7fYUGF74NIQVNEFat/SoZik/Mm4GfqQ==" saltValue="4qOYEZnJ0QBu+hbGyjWvYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4wXXH3XYu9lQHVQWAJnBrIr48rtqVV1r4lmmtV2HhmTUQ3ej7PT2XY86caHQE3RvJSHtFUyJU0JM7ZSOLse0Rg==" saltValue="nZnbZhv7vE/crK56DZjvxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
